--- a/mouseID.xlsx
+++ b/mouseID.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steinmetz lab\Documents\MATLAB\GCAMPline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steinmetz lab\Documents\git\GCAMPLinePowerSpecCompare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B9BCFA-3A5C-4FFD-AAD5-5BD723844E8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28450363-1950-4573-A29B-6B40D2DA9B73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="62595" yWindow="6330" windowWidth="22860" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="59">
   <si>
     <t>MouseID</t>
   </si>
@@ -196,6 +196,15 @@
   </si>
   <si>
     <t>g8f,25 uL</t>
+  </si>
+  <si>
+    <t>g7f, 20uL</t>
+  </si>
+  <si>
+    <t>g7f, 17 uL</t>
+  </si>
+  <si>
+    <t>g7s, 20uL</t>
   </si>
 </sst>
 </file>
@@ -243,20 +252,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,7 +555,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -550,45 +565,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="3" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J2" t="s">
@@ -611,28 +626,28 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>44072</v>
       </c>
-      <c r="C3" s="7">
-        <v>2</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
         <v>4</v>
       </c>
-      <c r="E3" s="7">
-        <v>500</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="E3" s="5">
+        <v>500</v>
+      </c>
+      <c r="F3" s="4">
         <v>44072</v>
       </c>
-      <c r="G3" s="4">
-        <v>2</v>
-      </c>
-      <c r="H3" s="4">
-        <v>3</v>
-      </c>
-      <c r="I3" s="4">
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3</v>
+      </c>
+      <c r="I3" s="3">
         <v>500</v>
       </c>
       <c r="J3">
@@ -655,28 +670,28 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>44058</v>
       </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>3</v>
-      </c>
-      <c r="E4" s="7">
-        <v>500</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>500</v>
+      </c>
+      <c r="F4" s="4">
         <v>44058</v>
       </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
-        <v>2</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3">
         <v>500</v>
       </c>
       <c r="J4">
@@ -699,28 +714,28 @@
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>44059</v>
       </c>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
         <v>4</v>
       </c>
-      <c r="E5" s="7">
-        <v>500</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E5" s="5">
+        <v>500</v>
+      </c>
+      <c r="F5" s="4">
         <v>44059</v>
       </c>
-      <c r="G5" s="4">
-        <v>2</v>
-      </c>
-      <c r="H5" s="4">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3">
         <v>500</v>
       </c>
       <c r="J5">
@@ -743,28 +758,28 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>44210</v>
       </c>
-      <c r="C6" s="7">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
         <v>4</v>
       </c>
-      <c r="E6" s="7">
-        <v>500</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="E6" s="5">
+        <v>500</v>
+      </c>
+      <c r="F6" s="4">
         <v>44210</v>
       </c>
-      <c r="G6" s="4">
-        <v>2</v>
-      </c>
-      <c r="H6" s="4">
-        <v>3</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3</v>
+      </c>
+      <c r="I6" s="3">
         <v>500</v>
       </c>
       <c r="J6">
@@ -787,28 +802,28 @@
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>44120</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>5</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>7</v>
       </c>
-      <c r="E7" s="7">
-        <v>200</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E7" s="5">
+        <v>200</v>
+      </c>
+      <c r="F7" s="4">
         <v>44120</v>
       </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
-        <v>2</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3">
         <v>200</v>
       </c>
       <c r="J7">
@@ -831,28 +846,28 @@
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>44132</v>
       </c>
-      <c r="C8" s="7">
-        <v>2</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5">
         <v>4</v>
       </c>
-      <c r="E8" s="7">
-        <v>500</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="E8" s="5">
+        <v>500</v>
+      </c>
+      <c r="F8" s="4">
         <v>44132</v>
       </c>
-      <c r="G8" s="4">
-        <v>2</v>
-      </c>
-      <c r="H8" s="4">
-        <v>3</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3">
         <v>500</v>
       </c>
       <c r="J8">
@@ -875,28 +890,28 @@
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>44132</v>
       </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
-        <v>3</v>
-      </c>
-      <c r="E9" s="7">
-        <v>500</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>500</v>
+      </c>
+      <c r="F9" s="4">
         <v>44132</v>
       </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
-        <v>2</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2</v>
+      </c>
+      <c r="I9" s="3">
         <v>500</v>
       </c>
       <c r="J9">
@@ -919,28 +934,28 @@
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>44210</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>4</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>5</v>
       </c>
-      <c r="E10" s="7">
-        <v>500</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="E10" s="5">
+        <v>500</v>
+      </c>
+      <c r="F10" s="4">
         <v>44209</v>
       </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3">
         <v>500</v>
       </c>
       <c r="J10">
@@ -963,28 +978,28 @@
       <c r="A11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="6">
         <v>44237</v>
       </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
         <v>4</v>
       </c>
-      <c r="E11" s="7">
-        <v>500</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="E11" s="5">
+        <v>500</v>
+      </c>
+      <c r="F11" s="4">
         <v>44237</v>
       </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
-        <v>2</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2</v>
+      </c>
+      <c r="I11" s="3">
         <v>500</v>
       </c>
       <c r="J11">
@@ -1007,28 +1022,28 @@
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="6">
         <v>43966</v>
       </c>
-      <c r="C12" s="7">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7">
-        <v>3</v>
-      </c>
-      <c r="E12" s="7">
-        <v>500</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5">
+        <v>500</v>
+      </c>
+      <c r="F12" s="4">
         <v>43966</v>
       </c>
-      <c r="G12" s="4">
-        <v>2</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3">
         <v>4</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>500</v>
       </c>
       <c r="J12">
@@ -1051,28 +1066,28 @@
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="6">
         <v>44055</v>
       </c>
-      <c r="C13" s="7">
-        <v>2</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
         <v>4</v>
       </c>
-      <c r="E13" s="7">
-        <v>500</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="E13" s="5">
+        <v>500</v>
+      </c>
+      <c r="F13" s="4">
         <v>44055</v>
       </c>
-      <c r="G13" s="4">
-        <v>2</v>
-      </c>
-      <c r="H13" s="4">
-        <v>3</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3</v>
+      </c>
+      <c r="I13" s="3">
         <v>500</v>
       </c>
       <c r="J13">
@@ -1095,28 +1110,28 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="6">
         <v>44001</v>
       </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
         <v>4</v>
       </c>
-      <c r="E14" s="7">
-        <v>200</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="E14" s="5">
+        <v>200</v>
+      </c>
+      <c r="F14" s="4">
         <v>44001</v>
       </c>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4">
-        <v>3</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
       <c r="J14">
@@ -1139,28 +1154,28 @@
       <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="6">
         <v>44166</v>
       </c>
-      <c r="C15" s="7">
-        <v>2</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5">
         <v>4</v>
       </c>
-      <c r="E15" s="7">
-        <v>200</v>
-      </c>
-      <c r="F15" s="5">
+      <c r="E15" s="5">
+        <v>200</v>
+      </c>
+      <c r="F15" s="4">
         <v>44166</v>
       </c>
-      <c r="G15" s="4">
-        <v>2</v>
-      </c>
-      <c r="H15" s="4">
-        <v>3</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3">
         <v>200</v>
       </c>
       <c r="J15">
@@ -1175,28 +1190,28 @@
       <c r="M15">
         <v>398</v>
       </c>
-      <c r="N15" t="s">
-        <v>30</v>
+      <c r="N15" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="5">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4">
         <v>44180</v>
       </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4">
-        <v>2</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>2</v>
+      </c>
+      <c r="I16" s="3">
         <v>500</v>
       </c>
       <c r="J16">
@@ -1211,36 +1226,36 @@
       <c r="M16">
         <v>129</v>
       </c>
-      <c r="N16" t="s">
-        <v>30</v>
+      <c r="N16" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="6">
         <v>44243</v>
       </c>
-      <c r="C17" s="7">
-        <v>2</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5">
         <v>4</v>
       </c>
-      <c r="E17" s="7">
-        <v>200</v>
-      </c>
-      <c r="F17" s="5">
+      <c r="E17" s="5">
+        <v>200</v>
+      </c>
+      <c r="F17" s="4">
         <v>44243</v>
       </c>
-      <c r="G17" s="4">
-        <v>2</v>
-      </c>
-      <c r="H17" s="4">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17">
@@ -1255,36 +1270,36 @@
       <c r="M17">
         <v>430</v>
       </c>
-      <c r="N17" t="s">
-        <v>40</v>
+      <c r="N17" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="6">
         <v>44264</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="5">
         <v>5</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <v>6</v>
       </c>
-      <c r="E18" s="7">
-        <v>200</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="E18" s="5">
+        <v>200</v>
+      </c>
+      <c r="F18" s="4">
         <v>44263</v>
       </c>
-      <c r="G18" s="4">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4">
-        <v>2</v>
-      </c>
-      <c r="I18" s="4">
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2</v>
+      </c>
+      <c r="I18" s="3">
         <v>200</v>
       </c>
       <c r="J18" s="2">
@@ -1299,7 +1314,7 @@
       <c r="M18">
         <v>423</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1307,28 +1322,28 @@
       <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="6">
         <v>44152</v>
       </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2</v>
-      </c>
-      <c r="E19" s="7">
-        <v>200</v>
-      </c>
-      <c r="F19" s="5">
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2</v>
+      </c>
+      <c r="E19" s="5">
+        <v>200</v>
+      </c>
+      <c r="F19" s="4">
         <v>44151</v>
       </c>
-      <c r="G19" s="4">
-        <v>2</v>
-      </c>
-      <c r="H19" s="4">
-        <v>3</v>
-      </c>
-      <c r="I19" s="4">
+      <c r="G19" s="3">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3</v>
+      </c>
+      <c r="I19" s="3">
         <v>200</v>
       </c>
       <c r="J19">
@@ -1343,7 +1358,7 @@
       <c r="M19">
         <v>355</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1351,20 +1366,20 @@
       <c r="A20" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="5">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4">
         <v>44071</v>
       </c>
-      <c r="G20" s="4">
-        <v>1</v>
-      </c>
-      <c r="H20" s="4">
-        <v>3</v>
-      </c>
-      <c r="I20" s="4">
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3">
         <v>500</v>
       </c>
       <c r="J20">
@@ -1379,7 +1394,7 @@
       <c r="M20">
         <v>460</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1387,20 +1402,20 @@
       <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="5">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="4">
         <v>44174</v>
       </c>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
-      <c r="H21" s="4">
-        <v>2</v>
-      </c>
-      <c r="I21" s="4">
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2</v>
+      </c>
+      <c r="I21" s="3">
         <v>200</v>
       </c>
       <c r="J21">
@@ -1415,7 +1430,7 @@
       <c r="M21">
         <v>440</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1423,31 +1438,31 @@
       <c r="A22" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="6">
         <v>44284</v>
       </c>
-      <c r="C22" s="7">
-        <v>2</v>
-      </c>
-      <c r="D22" s="7">
+      <c r="C22" s="5">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5">
         <v>4</v>
       </c>
-      <c r="E22" s="7">
-        <v>200</v>
-      </c>
-      <c r="F22" s="5">
+      <c r="E22" s="5">
+        <v>200</v>
+      </c>
+      <c r="F22" s="4">
         <v>44284</v>
       </c>
-      <c r="G22" s="4">
-        <v>2</v>
-      </c>
-      <c r="H22" s="4">
-        <v>3</v>
-      </c>
-      <c r="I22" s="4">
-        <v>200</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="G22" s="3">
+        <v>2</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="N22" s="9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1455,31 +1470,31 @@
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="6">
         <v>44284</v>
       </c>
-      <c r="C23" s="7">
-        <v>2</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="C23" s="5">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5">
         <v>4</v>
       </c>
-      <c r="E23" s="7">
-        <v>200</v>
-      </c>
-      <c r="F23" s="5">
+      <c r="E23" s="5">
+        <v>200</v>
+      </c>
+      <c r="F23" s="4">
         <v>44284</v>
       </c>
-      <c r="G23" s="4">
-        <v>2</v>
-      </c>
-      <c r="H23" s="4">
-        <v>3</v>
-      </c>
-      <c r="I23" s="4">
-        <v>200</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="G23" s="3">
+        <v>2</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3</v>
+      </c>
+      <c r="I23" s="3">
+        <v>200</v>
+      </c>
+      <c r="N23" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1487,31 +1502,31 @@
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="6">
         <v>44284</v>
       </c>
-      <c r="C24" s="7">
-        <v>2</v>
-      </c>
-      <c r="D24" s="7">
+      <c r="C24" s="5">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5">
         <v>4</v>
       </c>
-      <c r="E24" s="7">
-        <v>200</v>
-      </c>
-      <c r="F24" s="5">
+      <c r="E24" s="5">
+        <v>200</v>
+      </c>
+      <c r="F24" s="4">
         <v>44284</v>
       </c>
-      <c r="G24" s="4">
-        <v>2</v>
-      </c>
-      <c r="H24" s="4">
-        <v>3</v>
-      </c>
-      <c r="I24" s="4">
-        <v>200</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="G24" s="3">
+        <v>2</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3">
+        <v>200</v>
+      </c>
+      <c r="N24" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1519,31 +1534,31 @@
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="6">
         <v>44286</v>
       </c>
-      <c r="C25" s="7">
-        <v>1</v>
-      </c>
-      <c r="D25" s="7">
-        <v>3</v>
-      </c>
-      <c r="E25" s="7">
-        <v>200</v>
-      </c>
-      <c r="F25" s="5">
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <v>3</v>
+      </c>
+      <c r="E25" s="5">
+        <v>200</v>
+      </c>
+      <c r="F25" s="4">
         <v>44286</v>
       </c>
-      <c r="G25" s="4">
-        <v>1</v>
-      </c>
-      <c r="H25" s="4">
-        <v>2</v>
-      </c>
-      <c r="I25" s="4">
-        <v>200</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <v>2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>200</v>
+      </c>
+      <c r="N25" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1551,31 +1566,31 @@
       <c r="A26" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="6">
         <v>44286</v>
       </c>
-      <c r="C26" s="7">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7">
-        <v>3</v>
-      </c>
-      <c r="E26" s="7">
-        <v>200</v>
-      </c>
-      <c r="F26" s="5">
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <v>3</v>
+      </c>
+      <c r="E26" s="5">
+        <v>200</v>
+      </c>
+      <c r="F26" s="4">
         <v>44286</v>
       </c>
-      <c r="G26" s="4">
-        <v>1</v>
-      </c>
-      <c r="H26" s="4">
-        <v>2</v>
-      </c>
-      <c r="I26" s="4">
-        <v>200</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2</v>
+      </c>
+      <c r="I26" s="3">
+        <v>200</v>
+      </c>
+      <c r="N26" s="9" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1583,31 +1598,31 @@
       <c r="A27" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="6">
         <v>44286</v>
       </c>
-      <c r="C27" s="7">
-        <v>1</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3</v>
-      </c>
-      <c r="E27" s="7">
-        <v>200</v>
-      </c>
-      <c r="F27" s="5">
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
+        <v>3</v>
+      </c>
+      <c r="E27" s="5">
+        <v>200</v>
+      </c>
+      <c r="F27" s="4">
         <v>44286</v>
       </c>
-      <c r="G27" s="4">
-        <v>1</v>
-      </c>
-      <c r="H27" s="4">
-        <v>2</v>
-      </c>
-      <c r="I27" s="4">
-        <v>200</v>
-      </c>
-      <c r="N27" t="s">
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2</v>
+      </c>
+      <c r="I27" s="3">
+        <v>200</v>
+      </c>
+      <c r="N27" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1615,31 +1630,31 @@
       <c r="A28" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="6">
         <v>44286</v>
       </c>
-      <c r="C28" s="7">
-        <v>1</v>
-      </c>
-      <c r="D28" s="7">
-        <v>3</v>
-      </c>
-      <c r="E28" s="7">
-        <v>200</v>
-      </c>
-      <c r="F28" s="5">
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
+        <v>3</v>
+      </c>
+      <c r="E28" s="5">
+        <v>200</v>
+      </c>
+      <c r="F28" s="4">
         <v>44286</v>
       </c>
-      <c r="G28" s="4">
-        <v>1</v>
-      </c>
-      <c r="H28" s="4">
-        <v>2</v>
-      </c>
-      <c r="I28" s="4">
-        <v>200</v>
-      </c>
-      <c r="N28" t="s">
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
+        <v>2</v>
+      </c>
+      <c r="I28" s="3">
+        <v>200</v>
+      </c>
+      <c r="N28" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1649,6 +1664,7 @@
     <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
